--- a/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brestadodoeventoxeventstatus_brestadodoeventoxeventstatus.xlsx
+++ b/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brestadodoeventoxeventstatus_brestadodoeventoxeventstatus.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaassis\Documents\GitHub\HSL-IPS\Entregaveis\Entrega_1_RepositorioSemantico\Imunizacao\ConceptMap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monalisa\Documents\GitHub\HSL-IPS\Entregaveis\Entrega_1_RepositorioSemantico\Imunizacao\ConceptMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656"/>
   </bookViews>
   <sheets>
     <sheet name="brestadodoeventoxeventstatus" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,76 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Monalisa</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Monalisa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+irá manter ou não?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Monalisa</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Monalisa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+irá manter ou não?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>GRAU DE EQUIVALÊNCIA DO MAPEAMENTO</t>
   </si>
@@ -60,35 +128,44 @@
     <t>TERMO REPETIDO.</t>
   </si>
   <si>
-    <t xml:space="preserve">STATUS </t>
-  </si>
-  <si>
     <t xml:space="preserve">Collection x Collection </t>
   </si>
   <si>
     <t>Organização x Organização</t>
   </si>
   <si>
-    <t>NOME (ALVO) (EN-GB)</t>
-  </si>
-  <si>
-    <t>NOME (ALVO) (PT-PT)</t>
-  </si>
-  <si>
     <t>ID (FONTE)</t>
   </si>
   <si>
-    <t>NOME (FONTE)</t>
-  </si>
-  <si>
     <t>ID (ALVO)</t>
+  </si>
+  <si>
+    <t>DISPLAY NAME (FONTE)</t>
+  </si>
+  <si>
+    <t>CLASS (FONTE)</t>
+  </si>
+  <si>
+    <t>DATATYPE (FONTE)</t>
+  </si>
+  <si>
+    <t>DISPLAY NAME (ALVO)</t>
+  </si>
+  <si>
+    <t>NOME (PT-PT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLASS (ALVO) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATATYPE (ALVO) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,7 +192,29 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -133,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -156,24 +255,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -468,87 +605,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" customWidth="1"/>
+    <col min="10" max="10" width="27.21875" customWidth="1"/>
+    <col min="11" max="11" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:H3"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048576">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+      <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -560,9 +720,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
+            <xm:f>Opções!$A$1:$E$1</xm:f>
           </x14:formula1>
-          <xm:sqref>G3</xm:sqref>
+          <xm:sqref>J1:J1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -571,100 +731,122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="33.5546875" customWidth="1"/>
+    <col min="11" max="11" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:H3"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048576">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+      <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
+            <xm:f>Opções!$A$1:$G$1</xm:f>
           </x14:formula1>
-          <xm:sqref>G3</xm:sqref>
+          <xm:sqref>G4:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Opções!$A$1:$G$1</xm:f>
+            <xm:f>Opções!$A$1:$E$1</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G1048576</xm:sqref>
+          <xm:sqref>J1:J1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -680,12 +862,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>

--- a/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brestadodoeventoxeventstatus_brestadodoeventoxeventstatus.xlsx
+++ b/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brestadodoeventoxeventstatus_brestadodoeventoxeventstatus.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaassis\Documents\GitHub\HSL-IPS\Entregaveis\Entrega_1_RepositorioSemantico\Imunizacao\ConceptMap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C20770D-BC0A-D74E-9498-B0E4A8ACBA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27540" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="brestadodoeventoxeventstatus" sheetId="1" r:id="rId1"/>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,7 +179,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,25 +469,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -498,7 +499,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -510,7 +511,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -537,13 +538,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H3"/>
+  <autoFilter ref="A3:H3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
     </dataValidation>
   </dataValidations>
@@ -552,15 +553,15 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Opções!$A$1:$G$1</xm:f>
           </x14:formula1>
           <xm:sqref>G4:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
-            <xm:f>'C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
+            <xm:f>'/Users/beatrizdefarialeao/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G3</xm:sqref>
         </x14:dataValidation>
@@ -571,25 +572,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -601,7 +602,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -613,7 +614,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -640,13 +641,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H3"/>
+  <autoFilter ref="A3:H3" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
     </dataValidation>
   </dataValidations>
@@ -654,13 +655,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
-            <xm:f>'C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
+            <xm:f>'/Users/beatrizdefarialeao/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Opções!$A$1:$G$1</xm:f>
           </x14:formula1>
@@ -673,19 +674,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>

--- a/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brestadodoeventoxeventstatus_brestadodoeventoxeventstatus.xlsx
+++ b/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brestadodoeventoxeventstatus_brestadodoeventoxeventstatus.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monalisa\Documents\GitHub\HSL-IPS\Entregaveis\Entrega_1_RepositorioSemantico\Imunizacao\ConceptMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C20770D-BC0A-D74E-9498-B0E4A8ACBA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="27540" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="756" windowWidth="27540" windowHeight="13104" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="brestadodoeventoxeventstatus" sheetId="1" r:id="rId1"/>
@@ -19,6 +18,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">brestadodoeventoxeventstatus!$A$3:$H$3</definedName>
@@ -34,8 +34,76 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Monalisa</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Monalisa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+irá manter ou não?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Monalisa</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Monalisa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+irá manter ou não?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>GRAU DE EQUIVALÊNCIA DO MAPEAMENTO</t>
   </si>
@@ -61,35 +129,47 @@
     <t>TERMO REPETIDO.</t>
   </si>
   <si>
-    <t xml:space="preserve">STATUS </t>
-  </si>
-  <si>
     <t xml:space="preserve">Collection x Collection </t>
   </si>
   <si>
     <t>Organização x Organização</t>
   </si>
   <si>
-    <t>NOME (ALVO) (EN-GB)</t>
-  </si>
-  <si>
-    <t>NOME (ALVO) (PT-PT)</t>
-  </si>
-  <si>
     <t>ID (FONTE)</t>
   </si>
   <si>
-    <t>NOME (FONTE)</t>
-  </si>
-  <si>
     <t>ID (ALVO)</t>
   </si>
+  <si>
+    <t>SOURCE (FONTE)</t>
+  </si>
+  <si>
+    <t>DISPLAY NAME (FONTE)</t>
+  </si>
+  <si>
+    <t>CLASS (FONTE)</t>
+  </si>
+  <si>
+    <t>DATATYPE (FONTE)</t>
+  </si>
+  <si>
+    <t>DISPLAY NAME (ALVO)</t>
+  </si>
+  <si>
+    <t>NOME (PT-PT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLASS (ALVO) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATATYPE (ALVO) </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,7 +196,29 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -162,24 +264,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -195,6 +300,19 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Opções"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -469,101 +587,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L3" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
     <col min="7" max="7" width="33.33203125" customWidth="1"/>
     <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" customWidth="1"/>
+    <col min="11" max="11" width="29.33203125" customWidth="1"/>
+    <col min="12" max="12" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:H3"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048576">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+      <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Opções!$A$1:$G$1</xm:f>
           </x14:formula1>
           <xm:sqref>G4:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'/Users/beatrizdefarialeao/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
+            <xm:f>Opções!$A$1:$E$1</xm:f>
           </x14:formula1>
-          <xm:sqref>G3</xm:sqref>
+          <xm:sqref>K1:K1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -572,101 +719,129 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="3" width="31.1640625" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="3" width="31.109375" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
     <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
     <col min="7" max="7" width="33.33203125" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" customWidth="1"/>
+    <col min="12" max="12" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:12" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H3" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A3:H3"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048576">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+      <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
-          <x14:formula1>
-            <xm:f>'/Users/beatrizdefarialeao/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>G3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Opções!$A$1:$G$1</xm:f>
           </x14:formula1>
           <xm:sqref>G4:G1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Opções!$A$1:$E$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>K1:K1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -674,19 +849,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>

--- a/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brestadodoeventoxeventstatus_brestadodoeventoxeventstatus.xlsx
+++ b/Entregaveis/Entrega_1_RepositorioSemantico/Imunizacao/ConceptMap/brestadodoeventoxeventstatus_brestadodoeventoxeventstatus.xlsx
@@ -9,21 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="756" windowWidth="27540" windowHeight="13104" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="756" windowWidth="27540" windowHeight="13104"/>
   </bookViews>
   <sheets>
     <sheet name="brestadodoeventoxeventstatus" sheetId="1" r:id="rId1"/>
     <sheet name="eventstatusxbrestadoevento" sheetId="3" r:id="rId2"/>
     <sheet name="Opções" sheetId="2" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">brestadodoeventoxeventstatus!$A$3:$H$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">eventstatusxbrestadoevento!$A$3:$H$3</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">brestadodoeventoxeventstatus!$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">brestadodoeventoxeventstatus!$A$3:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">eventstatusxbrestadoevento!$A$3:$I$3</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">brestadodoeventoxeventstatus!$H$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +36,7 @@
     <author>Monalisa</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +70,7 @@
     <author>Monalisa</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>GRAU DE EQUIVALÊNCIA DO MAPEAMENTO</t>
   </si>
@@ -163,6 +159,9 @@
   </si>
   <si>
     <t xml:space="preserve">DATATYPE (ALVO) </t>
+  </si>
+  <si>
+    <t>SOURCE (ALVO)</t>
   </si>
 </sst>
 </file>
@@ -266,12 +265,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -279,6 +272,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -297,32 +296,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Opções"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Opções"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -588,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L3" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,97 +573,102 @@
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="27.21875" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" customWidth="1"/>
-    <col min="11" max="11" width="29.33203125" customWidth="1"/>
-    <col min="12" max="12" width="19.77734375" customWidth="1"/>
+    <col min="5" max="6" width="27.21875" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" customWidth="1"/>
+    <col min="12" max="12" width="29.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H3"/>
+  <autoFilter ref="A3:I3"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1048576">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -704,13 +682,13 @@
           <x14:formula1>
             <xm:f>Opções!$A$1:$G$1</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G1048576</xm:sqref>
+          <xm:sqref>H4:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Opções!$A$1:$E$1</xm:f>
           </x14:formula1>
-          <xm:sqref>K1:K1048576</xm:sqref>
+          <xm:sqref>L1:L1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -720,10 +698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,97 +709,102 @@
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="3" width="31.109375" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" customWidth="1"/>
-    <col min="8" max="8" width="25.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" customWidth="1"/>
-    <col min="12" max="12" width="42.44140625" customWidth="1"/>
+    <col min="5" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="24.88671875" customWidth="1"/>
+    <col min="13" max="13" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:13" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H3"/>
+  <autoFilter ref="A3:I3"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1048576">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -834,13 +817,13 @@
           <x14:formula1>
             <xm:f>Opções!$A$1:$G$1</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G1048576</xm:sqref>
+          <xm:sqref>H4:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Opções!$A$1:$E$1</xm:f>
           </x14:formula1>
-          <xm:sqref>K1:K1048576</xm:sqref>
+          <xm:sqref>L1:L1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
